--- a/Test9/compare.xlsx
+++ b/Test9/compare.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pbortolo/work/3_projects/3_BAR/debug_BD/BeamDyn_CpLambda/Test9/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8EF70B20-4E93-5E47-8B8B-F2CB140AEA1D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C744DDF7-CB6E-3144-8B35-C016B17DA7BD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="4060" windowWidth="28800" windowHeight="17540" xr2:uid="{E5924277-CD20-5A4C-9CA8-D28FC1E70BF1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
   <si>
     <t>ID</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>minus uy</t>
+  </si>
+  <si>
+    <t>Ansys Shell</t>
   </si>
 </sst>
 </file>
@@ -185,7 +188,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$12:$B$16</c:f>
+              <c:f>Sheet1!$B$17:$B$21</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -209,7 +212,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$12:$C$16</c:f>
+              <c:f>Sheet1!$C$17:$C$21</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -242,7 +245,15 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Cp-Lambda</c:v>
+            <c:strRef>
+              <c:f>Sheet1!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cp-Lambda</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -270,26 +281,23 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$8</c:f>
+              <c:f>Sheet1!$B$9:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1000</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2000</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3000</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>5000</c:v>
                 </c:pt>
               </c:numCache>
@@ -297,27 +305,24 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$3:$F$8</c:f>
+              <c:f>Sheet1!$F$9:$F$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>-2.2660018800000001</c:v>
+                  <c:v>-4.3631453100000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-6.6291471900000003</c:v>
+                  <c:v>-8.9495773199999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-11.215579200000001</c:v>
+                  <c:v>-13.73132872</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-15.9973306</c:v>
+                  <c:v>-18.672290820000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-20.938292700000002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-25.995571600000002</c:v>
+                  <c:v>-23.729569720000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -326,6 +331,99 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-3756-7B43-A31C-C770F314B6C0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ansys Shell</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$25:$B$29</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$25:$E$29</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-4.2240105834500001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-8.4441049388299998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-12.6622737236</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-16.881339772800001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-21.108231800199999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9FCC-7B45-A788-4F402AD129AA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -500,7 +598,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" b="1"/>
-                  <a:t>ux (BD) / uz (Cp-Lambda) (m)</a:t>
+                  <a:t>ux BD (m)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -681,6 +779,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BeamDyn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -707,7 +816,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$12:$B$16</c:f>
+              <c:f>Sheet1!$B$17:$B$21</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -731,7 +840,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$12:$E$16</c:f>
+              <c:f>Sheet1!$E$17:$E$21</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -763,6 +872,17 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cp-Lambda</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -789,7 +909,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$8</c:f>
+              <c:f>Sheet1!$B$9:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -813,24 +933,24 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$4:$C$8</c:f>
+              <c:f>Sheet1!$C$9:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.9631123599999998</c:v>
+                  <c:v>1.9573646099999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.7636793900000001</c:v>
+                  <c:v>3.7579316399999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.3754522700000003</c:v>
+                  <c:v>5.36970452</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.7696859399999996</c:v>
+                  <c:v>6.7639381899999993</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.9229253899999996</c:v>
+                  <c:v>7.9171776399999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -839,6 +959,99 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-6CBF-CE4F-B736-A59C0A384E08}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ansys Shell</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$25:$B$29</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$25:$C$29</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-0.10938593276399999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.39099446424000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.84580873981299998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.4753883593599999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.2843406319300001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-317F-5C45-A15E-C4EC8321FC87}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -881,7 +1094,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -894,8 +1107,8 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Load (N/m)</a:t>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t> Load (N/m)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -913,7 +1126,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -998,7 +1211,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1011,8 +1224,8 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>uz (m)</a:t>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>uz BD (m)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1030,7 +1243,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1095,6 +1308,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1162,6 +1406,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>BeamDyn</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -1188,7 +1435,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$12:$B$16</c:f>
+              <c:f>Sheet1!$B$17:$B$21</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1212,7 +1459,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$12:$D$16</c:f>
+              <c:f>Sheet1!$D$17:$D$21</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1244,6 +1491,9 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>Cp-Lambda</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -1320,6 +1570,99 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-D8B1-ED43-9812-FC625876F977}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ansys Shell</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$25:$B$29</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$25:$D$29</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-9.4708029188699996E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-6.4395821240299994E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.164951931587</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.31292364732</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.508841794455</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4294-3D46-8C8D-E110154047F0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1362,7 +1705,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1375,7 +1718,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" b="1"/>
                   <a:t>Load (N/m)</a:t>
                 </a:r>
               </a:p>
@@ -1394,7 +1737,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1479,7 +1822,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1492,8 +1835,8 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>uy (m)</a:t>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>uy BD (m)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1511,7 +1854,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1576,6 +1919,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -3292,16 +3666,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>463550</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>539750</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3329,15 +3703,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3366,16 +3740,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3702,10 +4076,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A2D7120-021B-5D4B-83B8-3F2146F60E5E}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3795,7 +4169,7 @@
         <v>2.4553516399999999E-2</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:E8" si="0">-D4</f>
+        <f t="shared" ref="E4:E7" si="0">-D4</f>
         <v>-2.4553516399999999E-2</v>
       </c>
       <c r="F4" s="1">
@@ -3931,178 +4305,492 @@
         <v>3.27337507E-3</v>
       </c>
     </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C9" s="1">
+        <f>C4-C$3</f>
+        <v>1.9573646099999997</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" ref="D9:I9" si="1">D4-D$3</f>
+        <v>2.4553516399999999E-2</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="1"/>
+        <v>-2.4553516399999999E-2</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="1"/>
+        <v>-4.3631453100000002</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="1"/>
+        <v>-2.17044117E-4</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="1"/>
+        <v>5.4987386899999997E-2</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="1"/>
+        <v>6.0879433500000003E-4</v>
+      </c>
+    </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2000</v>
+      </c>
+      <c r="C10" s="1">
+        <f t="shared" ref="C10:I13" si="2">C5-C$3</f>
+        <v>3.7579316399999998</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="2"/>
+        <v>4.9181164399999998E-2</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="2"/>
+        <v>-4.9181164399999998E-2</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="2"/>
+        <v>-8.9495773199999995</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="2"/>
+        <v>-4.1086099199999997E-4</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="2"/>
+        <v>0.11174292600000001</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="2"/>
+        <v>1.2432203399999999E-3</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="A11">
         <v>3</v>
       </c>
-      <c r="E11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H11" t="s">
-        <v>7</v>
+      <c r="B11" s="1">
+        <v>3000</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" si="2"/>
+        <v>5.36970452</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="2"/>
+        <v>7.3826897099999997E-2</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="2"/>
+        <v>-7.3826897099999997E-2</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="2"/>
+        <v>-13.73132872</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="2"/>
+        <v>-5.7751709999999997E-4</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="2"/>
+        <v>0.169973175</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="2"/>
+        <v>1.9009554000000001E-3</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B12" s="1">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="C12" s="1">
-        <v>-4.2765542798115197</v>
+        <f t="shared" si="2"/>
+        <v>6.7639381899999993</v>
       </c>
       <c r="D12" s="1">
-        <v>-2.4589719265467599E-2</v>
+        <f t="shared" si="2"/>
+        <v>9.8440162900000003E-2</v>
       </c>
       <c r="E12" s="1">
-        <v>2.0444752403670199</v>
+        <f t="shared" si="2"/>
+        <v>-9.8440162900000003E-2</v>
       </c>
       <c r="F12" s="1">
-        <v>5.9752718986079705E-4</v>
+        <f t="shared" si="2"/>
+        <v>-18.672290820000001</v>
       </c>
       <c r="G12" s="1">
-        <v>-5.4455759012832297E-2</v>
+        <f t="shared" si="2"/>
+        <v>-7.1353903E-4</v>
       </c>
       <c r="H12" s="1">
-        <v>-2.33266116352341E-4</v>
+        <f t="shared" si="2"/>
+        <v>0.22932970799999999</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="2"/>
+        <v>2.5789234199999999E-3</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B13" s="1">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="C13" s="1">
-        <v>-8.7882550479653005</v>
+        <f t="shared" si="2"/>
+        <v>7.9171776399999994</v>
       </c>
       <c r="D13" s="1">
-        <v>-4.9274457740667202E-2</v>
+        <f t="shared" si="2"/>
+        <v>0.122976746</v>
       </c>
       <c r="E13" s="1">
-        <v>3.9453906217083801</v>
+        <f t="shared" si="2"/>
+        <v>-0.122976746</v>
       </c>
       <c r="F13" s="1">
-        <v>1.22231274451763E-3</v>
+        <f t="shared" si="2"/>
+        <v>-23.729569720000001</v>
       </c>
       <c r="G13" s="1">
-        <v>-0.110804675088465</v>
+        <f t="shared" si="2"/>
+        <v>-8.1614390200000005E-4</v>
       </c>
       <c r="H13" s="1">
-        <v>-4.4506751238325101E-4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>2</v>
-      </c>
-      <c r="B14" s="1">
-        <v>3000</v>
-      </c>
-      <c r="C14" s="1">
-        <v>-13.510211343071701</v>
-      </c>
-      <c r="D14" s="1">
-        <v>-7.3996498532356E-2</v>
-      </c>
-      <c r="E14" s="1">
-        <v>5.6693723415335402</v>
-      </c>
-      <c r="F14" s="1">
-        <v>1.8723821596714099E-3</v>
-      </c>
-      <c r="G14" s="1">
-        <v>-0.16877215025257</v>
-      </c>
-      <c r="H14" s="1">
-        <v>-6.3127320131417704E-4</v>
+        <f t="shared" si="2"/>
+        <v>0.289422399</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="2"/>
+        <v>3.27337507E-3</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>3</v>
-      </c>
-      <c r="B15" s="1">
-        <v>4000</v>
-      </c>
-      <c r="C15" s="1">
-        <v>-18.408925550554301</v>
-      </c>
-      <c r="D15" s="1">
-        <v>-9.8703325394341804E-2</v>
-      </c>
-      <c r="E15" s="1">
-        <v>7.1855032580867597</v>
-      </c>
-      <c r="F15" s="1">
-        <v>2.5449683790348902E-3</v>
-      </c>
-      <c r="G15" s="1">
-        <v>-0.22802386947210601</v>
-      </c>
-      <c r="H15" s="1">
-        <v>-7.8811971041838904E-4</v>
-      </c>
+      <c r="A15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="1">
+      <c r="F16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C17" s="1">
+        <v>-4.2765542798115197</v>
+      </c>
+      <c r="D17" s="1">
+        <v>-2.4589719265467599E-2</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2.0444752403670199</v>
+      </c>
+      <c r="F17" s="1">
+        <v>5.9752718986079705E-4</v>
+      </c>
+      <c r="G17" s="1">
+        <v>-5.4455759012832297E-2</v>
+      </c>
+      <c r="H17" s="1">
+        <v>-2.33266116352341E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2000</v>
+      </c>
+      <c r="C18" s="1">
+        <v>-8.7882550479653005</v>
+      </c>
+      <c r="D18" s="1">
+        <v>-4.9274457740667202E-2</v>
+      </c>
+      <c r="E18" s="1">
+        <v>3.9453906217083801</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1.22231274451763E-3</v>
+      </c>
+      <c r="G18" s="1">
+        <v>-0.110804675088465</v>
+      </c>
+      <c r="H18" s="1">
+        <v>-4.4506751238325101E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" s="1">
+        <v>3000</v>
+      </c>
+      <c r="C19" s="1">
+        <v>-13.510211343071701</v>
+      </c>
+      <c r="D19" s="1">
+        <v>-7.3996498532356E-2</v>
+      </c>
+      <c r="E19" s="1">
+        <v>5.6693723415335402</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1.8723821596714099E-3</v>
+      </c>
+      <c r="G19" s="1">
+        <v>-0.16877215025257</v>
+      </c>
+      <c r="H19" s="1">
+        <v>-6.3127320131417704E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20" s="1">
+        <v>4000</v>
+      </c>
+      <c r="C20" s="1">
+        <v>-18.408925550554301</v>
+      </c>
+      <c r="D20" s="1">
+        <v>-9.8703325394341804E-2</v>
+      </c>
+      <c r="E20" s="1">
+        <v>7.1855032580867597</v>
+      </c>
+      <c r="F20" s="1">
+        <v>2.5449683790348902E-3</v>
+      </c>
+      <c r="G20" s="1">
+        <v>-0.22802386947210601</v>
+      </c>
+      <c r="H20" s="1">
+        <v>-7.8811971041838904E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21" s="1">
         <v>5000</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C21" s="1">
         <v>-23.4433511678263</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D21" s="1">
         <v>-0.123348770778307</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E21" s="1">
         <v>8.4674743319293793</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F21" s="1">
         <v>3.2365630408072599E-3</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G21" s="1">
         <v>-0.28817738859460501</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H21" s="1">
         <v>-9.1245644405037901E-4</v>
       </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C25" s="1">
+        <v>-0.10938593276399999</v>
+      </c>
+      <c r="D25" s="1">
+        <v>-9.4708029188699996E-3</v>
+      </c>
+      <c r="E25" s="1">
+        <v>-4.2240105834500001</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26" s="1">
+        <v>2000</v>
+      </c>
+      <c r="C26" s="1">
+        <v>-0.39099446424000001</v>
+      </c>
+      <c r="D26" s="1">
+        <v>-6.4395821240299994E-2</v>
+      </c>
+      <c r="E26" s="1">
+        <v>-8.4441049388299998</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27" s="1">
+        <v>3000</v>
+      </c>
+      <c r="C27" s="1">
+        <v>-0.84580873981299998</v>
+      </c>
+      <c r="D27" s="1">
+        <v>-0.164951931587</v>
+      </c>
+      <c r="E27" s="1">
+        <v>-12.6622737236</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28" s="1">
+        <v>4000</v>
+      </c>
+      <c r="C28" s="1">
+        <v>-1.4753883593599999</v>
+      </c>
+      <c r="D28" s="1">
+        <v>-0.31292364732</v>
+      </c>
+      <c r="E28" s="1">
+        <v>-16.881339772800001</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29" s="1">
+        <v>5000</v>
+      </c>
+      <c r="C29" s="1">
+        <v>-2.2843406319300001</v>
+      </c>
+      <c r="D29" s="1">
+        <v>-0.508841794455</v>
+      </c>
+      <c r="E29" s="1">
+        <v>-21.108231800199999</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="A23:H23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
